--- a/items_data/walgreens.xlsx
+++ b/items_data/walgreens.xlsx
@@ -460,10 +460,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -481,25 +481,40 @@
       </c>
       <c r="B1" s="5" t="inlineStr">
         <is>
+          <t>Short Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
